--- a/data/municipios_espana_completo.xlsx
+++ b/data/municipios_espana_completo.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -442,7 +442,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
@@ -491,208 +491,143 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Sartaguda</t>
+          <t>Tudela</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1287</v>
-      </c>
-      <c r="C2" s="2" t="n"/>
+        <v>37008</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>35157</v>
+      </c>
       <c r="D2" s="2" t="n">
-        <v>1287</v>
+        <v>1851</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0</v>
+        <v>117.19</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4.29</v>
+        <v>37.02</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.29</v>
+        <v>154.21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Sesma</t>
+          <t>Tafalla</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1149</v>
-      </c>
-      <c r="C3" s="2" t="n"/>
+        <v>10582</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>10052</v>
+      </c>
       <c r="D3" s="2" t="n">
-        <v>1149</v>
+        <v>530</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0</v>
+        <v>33.51</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3.83</v>
+        <v>10.6</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.83</v>
+        <v>44.11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Sorlada</t>
+          <t>Sartaguda</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>51</v>
+        <v>1287</v>
       </c>
       <c r="C4" s="2" t="n"/>
       <c r="D4" s="2" t="n">
-        <v>51</v>
+        <v>1287</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0.17</v>
+        <v>25.74</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0.17</v>
+        <v>25.74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Sumbilla</t>
+          <t>Sesma</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>674</v>
+        <v>1149</v>
       </c>
       <c r="C5" s="2" t="n"/>
       <c r="D5" s="2" t="n">
-        <v>674</v>
+        <v>1149</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.25</v>
+        <v>22.98</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.25</v>
+        <v>22.98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Tafalla</t>
+          <t>Sorlada</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>10582</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>10582</v>
-      </c>
-      <c r="D6" s="2" t="n"/>
+        <v>51</v>
+      </c>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n">
+        <v>51</v>
+      </c>
       <c r="E6" s="2" t="n">
-        <v>35.27</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>35.27</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>Tiebas-Muruarte de Reta</t>
+          <t>Ulzama</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>646</v>
+        <v>1669</v>
       </c>
       <c r="C7" s="2" t="n"/>
       <c r="D7" s="2" t="n">
-        <v>646</v>
+        <v>1669</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.15</v>
+        <v>33.38</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Tudela</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>37008</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>37008</v>
-      </c>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n">
-        <v>123.36</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>123.36</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Tulebras</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>136</v>
-      </c>
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="2" t="n">
-        <v>136</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>Ulzama</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>1669</v>
-      </c>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="2" t="n">
-        <v>1669</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>5.56</v>
+        <v>33.38</v>
       </c>
     </row>
   </sheetData>

--- a/data/municipios_espana_completo.xlsx
+++ b/data/municipios_espana_completo.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -442,7 +442,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
+    <col width="26" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
@@ -491,143 +491,2381 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Tudela</t>
+          <t>Monesma de Benabarre</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>37008</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>24506</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n"/>
       <c r="D2" s="2" t="n">
-        <v>12502</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>81.42</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>245.14</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>326.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Tafalla</t>
+          <t>Cajigar</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>10582</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>6866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n">
-        <v>3716</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>22.81</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>72.86</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>95.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Sartaguda</t>
+          <t>Librilla</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1287</v>
-      </c>
-      <c r="C4" s="2" t="n"/>
+        <v>5854</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>3661</v>
+      </c>
       <c r="D4" s="2" t="n">
-        <v>1287</v>
+        <v>2193</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0</v>
+        <v>12.16</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>25.24</v>
+        <v>43</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>25.24</v>
+        <v>55.16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Sesma</t>
+          <t>San Jaime de Enveija</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1149</v>
-      </c>
-      <c r="C5" s="2" t="n"/>
+        <v>3745</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>1658</v>
+      </c>
       <c r="D5" s="2" t="n">
-        <v>1149</v>
+        <v>2087</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0</v>
+        <v>5.51</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>22.53</v>
+        <v>40.92</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>22.53</v>
+        <v>46.43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Sorlada</t>
+          <t>Villalcázar de Sirga</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="C6" s="2" t="n"/>
       <c r="D6" s="2" t="n">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1</v>
+        <v>3.14</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>Ulzama</t>
+          <t>Vilanova de Escornalbou</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1669</v>
+        <v>614</v>
       </c>
       <c r="C7" s="2" t="n"/>
       <c r="D7" s="2" t="n">
-        <v>1669</v>
+        <v>614</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>32.73</v>
+        <v>12.04</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>32.73</v>
+        <v>12.04</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Moncada</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>22213</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>19202</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>3011</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>63.79</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>59.04</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>122.83</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Museros</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>6871</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>4627</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>2244</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>59.37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>El Palmar de Troya</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>2301</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>286</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>39.51</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>40.46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Garcihernández</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>412</v>
+      </c>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="n">
+        <v>412</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>8.08</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>La Alberca</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>1034</v>
+      </c>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n">
+        <v>1034</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>20.27</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>20.27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Redecilla del Camino</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="C13" s="2" t="n"/>
+      <c r="D13" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Rabé de las Calzadas</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>259</v>
+      </c>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="2" t="n">
+        <v>259</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Pedraza</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>335</v>
+      </c>
+      <c r="C15" s="2" t="n"/>
+      <c r="D15" s="2" t="n">
+        <v>335</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Cieza</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>35577</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>31898</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>3679</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>105.97</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>72.14</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>178.11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>Villarmentero de Campos</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Colmenar</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>3626</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>1545</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>2081</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>45.93</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Somosierra</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="C19" s="2" t="n"/>
+      <c r="D19" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>San Cebrián de Campos</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="C20" s="2" t="n"/>
+      <c r="D20" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>7.84</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Moratinos</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="C21" s="2" t="n"/>
+      <c r="D21" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Calamonte</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>6104</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>3899</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>2205</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>43.24</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>56.19</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Señera</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>1114</v>
+      </c>
+      <c r="C23" s="2" t="n"/>
+      <c r="D23" s="2" t="n">
+        <v>1114</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>21.84</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>21.84</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Villalbos</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="C24" s="2" t="n"/>
+      <c r="D24" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Capella</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="C25" s="2" t="n"/>
+      <c r="D25" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Margalef de Montsant</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="C26" s="2" t="n"/>
+      <c r="D26" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>Alarcón</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="C27" s="2" t="n"/>
+      <c r="D27" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Sena</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>490</v>
+      </c>
+      <c r="C28" s="2" t="n"/>
+      <c r="D28" s="2" t="n">
+        <v>490</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>9.609999999999999</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>La Sierpe</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="C29" s="2" t="n"/>
+      <c r="D29" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Tolva</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="C30" s="2" t="n"/>
+      <c r="D30" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Talavera</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>280</v>
+      </c>
+      <c r="C31" s="2" t="n"/>
+      <c r="D31" s="2" t="n">
+        <v>280</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Simat de Valldigna</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>3311</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>1245</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>2066</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>40.51</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>44.65</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>Cendea de Olza</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>1874</v>
+      </c>
+      <c r="C33" s="2" t="n"/>
+      <c r="D33" s="2" t="n">
+        <v>1874</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>36.75</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>36.75</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Creixell</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>4261</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>2148</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>2113</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>41.43</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>48.57</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>Fortuna</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>11437</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>8965</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>2472</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>29.78</v>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>48.47</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>78.25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Beranuy</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="C36" s="2" t="n"/>
+      <c r="D36" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>Pego</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>10791</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>8351</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>2440</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>27.74</v>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>47.84</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>75.58</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>Paiporta</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>28136</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>24829</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>3307</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>82.48999999999999</v>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>64.84</v>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>147.33</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>Sedaví</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>10837</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>8395</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>2442</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>27.89</v>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>47.88</v>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>75.77</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>Masanasa</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>10607</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>8177</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>2430</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>27.17</v>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>47.65</v>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>74.81999999999999</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>Lena</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>10382</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>7963</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>2419</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>26.46</v>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>47.43</v>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>73.89</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Vilasacra</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>878</v>
+      </c>
+      <c r="C42" s="2" t="n"/>
+      <c r="D42" s="2" t="n">
+        <v>878</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>17.22</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>17.22</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>Godelleta</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>4266</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>2153</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>2113</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>41.43</v>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>48.58</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>Tossalnou</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="C44" s="2" t="n"/>
+      <c r="D44" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>Cirueches</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2" t="n"/>
+      <c r="D45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Cendea de Iza</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2" t="n"/>
+      <c r="D46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>Valle de Aibar</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>1145</v>
+      </c>
+      <c r="C47" s="2" t="n"/>
+      <c r="D47" s="2" t="n">
+        <v>1145</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>22.45</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Rello</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C48" s="2" t="n"/>
+      <c r="D48" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>Cuevas del Almanzora</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>15526</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>12850</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>2676</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>42.69</v>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>52.47</v>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>95.16</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>Chirivel</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>1619</v>
+      </c>
+      <c r="C50" s="2" t="n"/>
+      <c r="D50" s="2" t="n">
+        <v>1619</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>31.75</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>Rebollar</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="C51" s="2" t="n"/>
+      <c r="D51" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>Garray</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>794</v>
+      </c>
+      <c r="C52" s="2" t="n"/>
+      <c r="D52" s="2" t="n">
+        <v>794</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>15.57</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>Fuencarral</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>16377</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>13658</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>2719</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45.38</v>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>53.31</v>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>98.69</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>Isanta</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" s="2" t="n"/>
+      <c r="D54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>Pueblonuevo del Terrible</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" s="2" t="n"/>
+      <c r="D55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>Bodonal de la Sierra</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>982</v>
+      </c>
+      <c r="C56" s="2" t="n"/>
+      <c r="D56" s="2" t="n">
+        <v>982</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>19.25</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>Alconchel</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>1592</v>
+      </c>
+      <c r="C57" s="2" t="n"/>
+      <c r="D57" s="2" t="n">
+        <v>1592</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>31.22</v>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>31.22</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>Calera de León</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>912</v>
+      </c>
+      <c r="C58" s="2" t="n"/>
+      <c r="D58" s="2" t="n">
+        <v>912</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2" t="n">
+        <v>17.88</v>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>17.88</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>Marquet</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" s="2" t="n"/>
+      <c r="D59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>Castropol</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" s="2" t="n"/>
+      <c r="D60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>Iglesias</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="C61" s="2" t="n"/>
+      <c r="D61" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Ubrique</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>16615</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>13884</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>2731</v>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>46.13</v>
+      </c>
+      <c r="F62" s="2" t="n">
+        <v>53.55</v>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>99.68000000000001</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>Fuente de Cantos</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>4583</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>2454</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>2129</v>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="F63" s="2" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>49.9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>Fuentes de León</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>2118</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F64" s="2" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>39.7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>Lobón</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>2756</v>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>718</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>2038</v>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="F65" s="2" t="n">
+        <v>39.96</v>
+      </c>
+      <c r="G65" s="2" t="n">
+        <v>42.35</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>Guareña</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>6665</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>4432</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>2233</v>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="F66" s="2" t="n">
+        <v>43.78</v>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>Casas de Don Pedro</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>1375</v>
+      </c>
+      <c r="C67" s="2" t="n"/>
+      <c r="D67" s="2" t="n">
+        <v>1375</v>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" s="2" t="n">
+        <v>26.96</v>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>26.96</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>Cabeza del Buey</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>4489</v>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>2365</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>2124</v>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>41.65</v>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>49.51</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>Burguillos del Cerro</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>2940</v>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>893</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>2047</v>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="F69" s="2" t="n">
+        <v>40.14</v>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>43.11</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>Ribera de Abajo</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" s="2" t="n"/>
+      <c r="D70" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>Oteruelo de Campos</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" s="2" t="n"/>
+      <c r="D71" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>Tabernes Blanques</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>9824</v>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>7433</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>2391</v>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>24.69</v>
+      </c>
+      <c r="F72" s="2" t="n">
+        <v>46.88</v>
+      </c>
+      <c r="G72" s="2" t="n">
+        <v>71.56999999999999</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>Covarrubias</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>501</v>
+      </c>
+      <c r="C73" s="2" t="n"/>
+      <c r="D73" s="2" t="n">
+        <v>501</v>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" s="2" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="G73" s="2" t="n">
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>Aldearrubia</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>518</v>
+      </c>
+      <c r="C74" s="2" t="n"/>
+      <c r="D74" s="2" t="n">
+        <v>518</v>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" s="2" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>10.16</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>Carboneras</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>8458</v>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>6135</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>2323</v>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>20.38</v>
+      </c>
+      <c r="F75" s="2" t="n">
+        <v>45.55</v>
+      </c>
+      <c r="G75" s="2" t="n">
+        <v>65.93000000000001</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>Vélez-Rubio</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>6685</v>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>4451</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>2234</v>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="F76" s="2" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="G76" s="2" t="n">
+        <v>58.59</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>Níjar</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>33319</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>29753</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>3566</v>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>98.84999999999999</v>
+      </c>
+      <c r="F77" s="2" t="n">
+        <v>69.92</v>
+      </c>
+      <c r="G77" s="2" t="n">
+        <v>168.77</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>Zurgena</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>3059</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>1006</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>2053</v>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F78" s="2" t="n">
+        <v>40.25</v>
+      </c>
+      <c r="G78" s="2" t="n">
+        <v>43.59</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>Dalías</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>4196</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>2086</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>2110</v>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="F79" s="2" t="n">
+        <v>41.37</v>
+      </c>
+      <c r="G79" s="2" t="n">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>Vícar</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>29342</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>25975</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>3367</v>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="F80" s="2" t="n">
+        <v>66.02</v>
+      </c>
+      <c r="G80" s="2" t="n">
+        <v>152.32</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>Abrucena</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>1241</v>
+      </c>
+      <c r="C81" s="2" t="n"/>
+      <c r="D81" s="2" t="n">
+        <v>1241</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" s="2" t="n">
+        <v>24.33</v>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>24.33</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>Coín</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>26574</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>23345</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>3229</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>77.56</v>
+      </c>
+      <c r="F82" s="2" t="n">
+        <v>63.31</v>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>140.87</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>Valdefuentes</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>1074</v>
+      </c>
+      <c r="C83" s="2" t="n"/>
+      <c r="D83" s="2" t="n">
+        <v>1074</v>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" s="2" t="n">
+        <v>21.06</v>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>21.06</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>Jimera de Líbar</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>399</v>
+      </c>
+      <c r="C84" s="2" t="n"/>
+      <c r="D84" s="2" t="n">
+        <v>399</v>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" s="2" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>7.82</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>Ezquioga-Ichaso</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>588</v>
+      </c>
+      <c r="C85" s="2" t="n"/>
+      <c r="D85" s="2" t="n">
+        <v>588</v>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" s="2" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>11.53</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>Xove</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>3269</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>1206</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>2063</v>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="F86" s="2" t="n">
+        <v>40.45</v>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>44.46</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>Zambrana</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>452</v>
+      </c>
+      <c r="C87" s="2" t="n"/>
+      <c r="D87" s="2" t="n">
+        <v>452</v>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>8.859999999999999</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>Cambre</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>24765</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>21627</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>3138</v>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>71.84999999999999</v>
+      </c>
+      <c r="F88" s="2" t="n">
+        <v>61.53</v>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>133.38</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>Arroyo de San Serván</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>4001</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>1901</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>2100</v>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="F89" s="2" t="n">
+        <v>41.18</v>
+      </c>
+      <c r="G89" s="2" t="n">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>Cedeira</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>6547</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>4320</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>2227</v>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>14.35</v>
+      </c>
+      <c r="F90" s="2" t="n">
+        <v>43.67</v>
+      </c>
+      <c r="G90" s="2" t="n">
+        <v>58.02</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>Añana</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="C91" s="2" t="n"/>
+      <c r="D91" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" s="2" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G91" s="2" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>Llano de Bureba</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="C92" s="2" t="n"/>
+      <c r="D92" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" s="2" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G92" s="2" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>Aranga</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>1793</v>
+      </c>
+      <c r="C93" s="2" t="n"/>
+      <c r="D93" s="2" t="n">
+        <v>1793</v>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" s="2" t="n">
+        <v>35.16</v>
+      </c>
+      <c r="G93" s="2" t="n">
+        <v>35.16</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>Culleredo</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>31254</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>27791</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>3463</v>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>92.33</v>
+      </c>
+      <c r="F94" s="2" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="G94" s="2" t="n">
+        <v>160.23</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>Adrada de Haza</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="C95" s="2" t="n"/>
+      <c r="D95" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" s="2" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="G95" s="2" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>Armiñón</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="C96" s="2" t="n"/>
+      <c r="D96" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" s="2" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="G96" s="2" t="n">
+        <v>4.63</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>Legazpia</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>8384</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>6065</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>2319</v>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="F97" s="2" t="n">
+        <v>45.47</v>
+      </c>
+      <c r="G97" s="2" t="n">
+        <v>65.62</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>Jabalquinto</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>1939</v>
+      </c>
+      <c r="C98" s="2" t="n"/>
+      <c r="D98" s="2" t="n">
+        <v>1939</v>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" s="2" t="n">
+        <v>38.02</v>
+      </c>
+      <c r="G98" s="2" t="n">
+        <v>38.02</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>Cerezo de Río Tirón</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>467</v>
+      </c>
+      <c r="C99" s="2" t="n"/>
+      <c r="D99" s="2" t="n">
+        <v>467</v>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" s="2" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="G99" s="2" t="n">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>Castellnou de Seana</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>726</v>
+      </c>
+      <c r="C100" s="2" t="n"/>
+      <c r="D100" s="2" t="n">
+        <v>726</v>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" s="2" t="n">
+        <v>14.24</v>
+      </c>
+      <c r="G100" s="2" t="n">
+        <v>14.24</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>Villafamés</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C101" s="2" t="n"/>
+      <c r="D101" s="2" t="n">
+        <v>1962</v>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" s="2" t="n">
+        <v>38.47</v>
+      </c>
+      <c r="G101" s="2" t="n">
+        <v>38.47</v>
       </c>
     </row>
   </sheetData>
